--- a/InternShip/InternShip.MvcUI/Documents/Imports/Student-Import-Excel.xlsx
+++ b/InternShip/InternShip.MvcUI/Documents/Imports/Student-Import-Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uylmz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\GitHub\InternShip\InternShip\InternShip.MvcUI\Documents\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0741BA7-13A6-48B8-B242-DFECC19F39AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8882E37-FEA2-4521-B976-FEA94E361768}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1E787152-8A49-4455-BC02-7F4D2382D464}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Telefon</t>
-  </si>
-  <si>
-    <t>Giriş Tarihi</t>
   </si>
   <si>
     <t>Öğrenci Numarası*</t>
@@ -402,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB0CC04-0019-41D2-A8E4-E64228F4488E}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -410,24 +407,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
